--- a/public/spreadsheets/Week 1;.xlsx
+++ b/public/spreadsheets/Week 1;.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b851239333313e9/Family Football/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickstigsell/dev/football-pool/public/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="8_{54D7CB75-675F-413C-9ADF-4FD8C0920E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95385D14-1DD9-42A7-A895-AFE8AB1F0DA6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2672875-F45A-974D-8F3E-442CF22B6DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="13044" xr2:uid="{E5A893EA-7D07-4363-8558-9984C8A0723C}"/>
+    <workbookView xWindow="380" yWindow="860" windowWidth="23920" windowHeight="20080" xr2:uid="{E5A893EA-7D07-4363-8558-9984C8A0723C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="47">
   <si>
     <t>Rick</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>POINTS</t>
-  </si>
-  <si>
-    <t>CIHC</t>
   </si>
   <si>
     <t>Phil</t>
@@ -211,6 +208,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,10 +517,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,18 +821,18 @@
   </sheetPr>
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="240" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="10" width="7.77734375" customWidth="1"/>
+    <col min="2" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" customWidth="1"/>
-    <col min="13" max="13" width="7.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="12" max="14" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -873,13 +867,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -898,12 +892,12 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
@@ -930,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="21" t="s">
         <v>12</v>
@@ -939,7 +933,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -958,7 +952,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -999,7 +993,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1013,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -1061,7 +1055,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1081,7 +1075,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1117,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
@@ -1143,7 +1137,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1185,7 +1179,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
@@ -1205,7 +1199,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1247,7 +1241,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
@@ -1267,7 +1261,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1309,7 +1303,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +1323,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -1371,7 +1365,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
@@ -1391,7 +1385,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1433,7 +1427,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +1447,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +1489,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1509,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -1550,14 +1544,14 @@
         <v>32</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1571,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
@@ -1619,7 +1613,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>35</v>
       </c>
@@ -1639,7 +1633,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -1681,7 +1675,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1695,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>38</v>
       </c>
@@ -1743,7 +1737,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>39</v>
       </c>
@@ -1763,7 +1757,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>40</v>
       </c>
@@ -1805,7 +1799,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
@@ -1825,7 +1819,7 @@
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>42</v>
       </c>
@@ -1854,7 +1848,7 @@
         <v>41</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K33" s="19" t="s">
         <v>41</v>
@@ -1867,7 +1861,7 @@
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>43</v>
       </c>
@@ -1909,7 +1903,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="16"/>
       <c r="C35" s="1"/>
@@ -1927,7 +1921,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="16"/>
       <c r="C36" s="1"/>
@@ -1945,7 +1939,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="16"/>
       <c r="C37" s="1"/>
@@ -1963,7 +1957,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B38" s="17"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1979,7 +1973,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B39" s="16"/>
     </row>
   </sheetData>
